--- a/dimes/文档/问题记录.xlsx
+++ b/dimes/文档/问题记录.xlsx
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原公式（总加工时间-损时时间）/总加工时间，变更为 （总加工时间-损时时间-NG件数*标准节拍）/总加工时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web端处理。最终需在web端点击确认，
  完工数，合格数，NG数，返修数，报废数，让步接收，报工数（自动不可修改，报工数=合格数+让步接收）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +137,10 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原公式（总加工时间-损时时间）/总加工时间，变更为 （总加工时间-损时时间-NG件数*标准节拍）/总加工时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,25 +620,25 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -662,19 +662,19 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E18" s="2"/>
     </row>
